--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>trimestre</t>
   </si>
@@ -34,6 +34,24 @@
     <t>recurrence_rate</t>
   </si>
   <si>
+    <t>2018Q4</t>
+  </si>
+  <si>
+    <t>2019Q1</t>
+  </si>
+  <si>
+    <t>2019Q2</t>
+  </si>
+  <si>
+    <t>2019Q3</t>
+  </si>
+  <si>
+    <t>2019Q4</t>
+  </si>
+  <si>
+    <t>2020Q1</t>
+  </si>
+  <si>
     <t>2020Q2</t>
   </si>
   <si>
@@ -89,6 +107,12 @@
   </si>
   <si>
     <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>2025Q2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,16 +504,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>66</v>
+        <v>524</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>62</v>
+        <v>488</v>
       </c>
       <c r="F2">
-        <v>2.395209580838324</v>
+        <v>6.94980694980695</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -500,16 +524,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>345</v>
+        <v>407</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="F3">
-        <v>3.03030303030303</v>
+        <v>5.534351145038168</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -520,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="F4">
-        <v>6.666666666666667</v>
+        <v>4.176904176904177</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -540,16 +564,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>177</v>
+        <v>568</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>175</v>
+        <v>548</v>
       </c>
       <c r="F5">
-        <v>0.544959128065395</v>
+        <v>6.230529595015576</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -560,16 +584,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>237</v>
+        <v>1032</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>228</v>
+        <v>1009</v>
       </c>
       <c r="F6">
-        <v>5.084745762711865</v>
+        <v>4.049295774647888</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -580,16 +604,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>237</v>
+        <v>727</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E7">
-        <v>225</v>
+        <v>676</v>
       </c>
       <c r="F7">
-        <v>5.063291139240507</v>
+        <v>4.941860465116279</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -600,16 +624,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>205</v>
+        <v>658</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>193</v>
+        <v>637</v>
       </c>
       <c r="F8">
-        <v>5.063291139240507</v>
+        <v>2.888583218707015</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -620,16 +644,16 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>247</v>
+        <v>897</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9">
-        <v>232</v>
+        <v>881</v>
       </c>
       <c r="F9">
-        <v>7.317073170731707</v>
+        <v>2.43161094224924</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -640,16 +664,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>253</v>
+        <v>673</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E10">
-        <v>234</v>
+        <v>623</v>
       </c>
       <c r="F10">
-        <v>7.692307692307693</v>
+        <v>5.574136008918618</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -660,16 +684,16 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>359</v>
+        <v>525</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>342</v>
+        <v>504</v>
       </c>
       <c r="F11">
-        <v>6.719367588932807</v>
+        <v>3.12035661218425</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -680,16 +704,16 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>338</v>
+        <v>713</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E12">
-        <v>317</v>
+        <v>677</v>
       </c>
       <c r="F12">
-        <v>5.849582172701949</v>
+        <v>6.857142857142858</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -700,16 +724,16 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>512</v>
+        <v>700</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E13">
-        <v>484</v>
+        <v>660</v>
       </c>
       <c r="F13">
-        <v>8.284023668639055</v>
+        <v>5.610098176718092</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -720,16 +744,16 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>411</v>
+        <v>747</v>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E14">
-        <v>370</v>
+        <v>700</v>
       </c>
       <c r="F14">
-        <v>8.0078125</v>
+        <v>6.714285714285714</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -740,16 +764,16 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>390</v>
+        <v>735</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E15">
-        <v>359</v>
+        <v>686</v>
       </c>
       <c r="F15">
-        <v>7.542579075425791</v>
+        <v>6.559571619812584</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -760,16 +784,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>340</v>
+        <v>752</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E16">
-        <v>316</v>
+        <v>685</v>
       </c>
       <c r="F16">
-        <v>6.153846153846154</v>
+        <v>9.115646258503402</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -780,16 +804,16 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>460</v>
+        <v>821</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="E17">
-        <v>431</v>
+        <v>744</v>
       </c>
       <c r="F17">
-        <v>8.529411764705882</v>
+        <v>10.23936170212766</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -800,16 +824,16 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>438</v>
+        <v>726</v>
       </c>
       <c r="D18">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E18">
-        <v>394</v>
+        <v>668</v>
       </c>
       <c r="F18">
-        <v>9.565217391304348</v>
+        <v>7.064555420219245</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -820,16 +844,16 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>603</v>
+        <v>797</v>
       </c>
       <c r="D19">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E19">
-        <v>554</v>
+        <v>746</v>
       </c>
       <c r="F19">
-        <v>11.18721461187214</v>
+        <v>7.024793388429752</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -840,16 +864,176 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>570</v>
+        <v>763</v>
       </c>
       <c r="D20">
+        <v>58</v>
+      </c>
+      <c r="E20">
+        <v>705</v>
+      </c>
+      <c r="F20">
+        <v>7.277289836888332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>748</v>
+      </c>
+      <c r="D21">
+        <v>51</v>
+      </c>
+      <c r="E21">
+        <v>697</v>
+      </c>
+      <c r="F21">
+        <v>6.684141546526867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>672</v>
+      </c>
+      <c r="D22">
         <v>40</v>
       </c>
-      <c r="E20">
-        <v>530</v>
-      </c>
-      <c r="F20">
-        <v>6.633499170812604</v>
+      <c r="E22">
+        <v>632</v>
+      </c>
+      <c r="F22">
+        <v>5.347593582887701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>653</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>603</v>
+      </c>
+      <c r="F23">
+        <v>7.440476190476191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>596</v>
+      </c>
+      <c r="D24">
+        <v>62</v>
+      </c>
+      <c r="E24">
+        <v>534</v>
+      </c>
+      <c r="F24">
+        <v>9.494640122511486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>715</v>
+      </c>
+      <c r="D25">
+        <v>64</v>
+      </c>
+      <c r="E25">
+        <v>651</v>
+      </c>
+      <c r="F25">
+        <v>10.73825503355705</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>738</v>
+      </c>
+      <c r="D26">
+        <v>49</v>
+      </c>
+      <c r="E26">
+        <v>689</v>
+      </c>
+      <c r="F26">
+        <v>6.853146853146853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>644</v>
+      </c>
+      <c r="D27">
+        <v>63</v>
+      </c>
+      <c r="E27">
+        <v>581</v>
+      </c>
+      <c r="F27">
+        <v>8.536585365853659</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>44</v>
+      </c>
+      <c r="F28">
+        <v>2.950310559006211</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -504,16 +504,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="F2">
-        <v>6.94980694980695</v>
+        <v>6.849315068493151</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -524,16 +524,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F3">
-        <v>5.534351145038168</v>
+        <v>5.458089668615984</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F4">
-        <v>4.176904176904177</v>
+        <v>4.020100502512562</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -564,16 +564,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F5">
-        <v>6.230529595015576</v>
+        <v>6.329113924050633</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -584,16 +584,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="F6">
-        <v>4.049295774647888</v>
+        <v>3.907637655417407</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -604,16 +604,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F7">
-        <v>4.941860465116279</v>
+        <v>4.878048780487805</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -624,16 +624,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F8">
-        <v>2.888583218707015</v>
+        <v>2.766251728907331</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -647,13 +647,13 @@
         <v>897</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F9">
-        <v>2.43161094224924</v>
+        <v>2.286585365853659</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -664,16 +664,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F10">
-        <v>5.574136008918618</v>
+        <v>5.351170568561873</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -684,16 +684,16 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F11">
-        <v>3.12035661218425</v>
+        <v>2.552552552552553</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -704,16 +704,16 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="F12">
-        <v>6.857142857142858</v>
+        <v>6.796116504854369</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -724,16 +724,16 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="F13">
-        <v>5.610098176718092</v>
+        <v>5.459770114942529</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -744,16 +744,16 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D14">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F14">
-        <v>6.714285714285714</v>
+        <v>6.531204644412192</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -764,16 +764,16 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D15">
         <v>49</v>
       </c>
       <c r="E15">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F15">
-        <v>6.559571619812584</v>
+        <v>6.586021505376344</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -784,16 +784,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D16">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F16">
-        <v>9.115646258503402</v>
+        <v>9.04109589041096</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -804,16 +804,16 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D17">
         <v>77</v>
       </c>
       <c r="E17">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F17">
-        <v>10.23936170212766</v>
+        <v>10.29411764705882</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -824,16 +824,16 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D18">
         <v>58</v>
       </c>
       <c r="E18">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F18">
-        <v>7.064555420219245</v>
+        <v>7.073170731707316</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -844,16 +844,16 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D19">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E19">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F19">
-        <v>7.024793388429752</v>
+        <v>6.639004149377594</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -864,16 +864,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D20">
         <v>58</v>
       </c>
       <c r="E20">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F20">
-        <v>7.277289836888332</v>
+        <v>7.29559748427673</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -884,16 +884,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D21">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F21">
-        <v>6.684141546526867</v>
+        <v>6.561679790026247</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -904,16 +904,16 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D22">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E22">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F22">
-        <v>5.347593582887701</v>
+        <v>5.114401076716016</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -924,16 +924,16 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F23">
-        <v>7.440476190476191</v>
+        <v>7.324364723467862</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -944,16 +944,16 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D24">
         <v>62</v>
       </c>
       <c r="E24">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F24">
-        <v>9.494640122511486</v>
+        <v>9.523809523809524</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -964,16 +964,16 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D25">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F25">
-        <v>10.73825503355705</v>
+        <v>10.60606060606061</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -984,16 +984,16 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D26">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26">
         <v>689</v>
       </c>
       <c r="F26">
-        <v>6.853146853146853</v>
+        <v>6.751054852320674</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1004,16 +1004,16 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D27">
         <v>63</v>
       </c>
       <c r="E27">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F27">
-        <v>8.536585365853659</v>
+        <v>8.548168249660787</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E28">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="F28">
-        <v>2.950310559006211</v>
+        <v>3.582554517133956</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E28">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="F28">
-        <v>3.582554517133956</v>
+        <v>4.049844236760125</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E28">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="F28">
-        <v>4.049844236760125</v>
+        <v>4.361370716510903</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,13 +1024,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D28">
         <v>28</v>
       </c>
       <c r="E28">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F28">
         <v>4.361370716510903</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,13 +1024,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="D28">
         <v>28</v>
       </c>
       <c r="E28">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="F28">
         <v>4.361370716510903</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,13 +1024,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D28">
         <v>28</v>
       </c>
       <c r="E28">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F28">
         <v>4.361370716510903</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E28">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="F28">
-        <v>4.361370716510903</v>
+        <v>4.672897196261682</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E28">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F28">
-        <v>4.672897196261682</v>
+        <v>4.984423676012461</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="D28">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E28">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="F28">
-        <v>4.984423676012461</v>
+        <v>5.29595015576324</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D28">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E28">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="F28">
-        <v>5.29595015576324</v>
+        <v>5.451713395638629</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="D28">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E28">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="F28">
-        <v>5.451713395638629</v>
+        <v>5.763239875389408</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D28">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F28">
-        <v>5.763239875389408</v>
+        <v>5.919003115264798</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,13 +1024,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="D28">
         <v>38</v>
       </c>
       <c r="E28">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="F28">
         <v>5.919003115264798</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D28">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E28">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F28">
-        <v>5.919003115264798</v>
+        <v>6.386292834890965</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,13 +1024,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="D28">
         <v>41</v>
       </c>
       <c r="E28">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F28">
         <v>6.386292834890965</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="D28">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E28">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="F28">
-        <v>6.386292834890965</v>
+        <v>6.853582554517133</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,13 +1024,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D28">
         <v>44</v>
       </c>
       <c r="E28">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F28">
         <v>6.853582554517133</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,13 +1024,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D28">
         <v>44</v>
       </c>
       <c r="E28">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F28">
         <v>6.853582554517133</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="D28">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E28">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F28">
-        <v>6.853582554517133</v>
+        <v>7.320872274143301</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="D28">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F28">
-        <v>7.320872274143301</v>
+        <v>7.476635514018691</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="D28">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E28">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="F28">
-        <v>7.476635514018691</v>
+        <v>7.632398753894081</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,13 +1024,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D28">
         <v>49</v>
       </c>
       <c r="E28">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F28">
         <v>7.632398753894081</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,13 +1024,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D28">
         <v>49</v>
       </c>
       <c r="E28">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="F28">
         <v>7.632398753894081</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,13 +1024,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D28">
         <v>49</v>
       </c>
       <c r="E28">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F28">
         <v>7.632398753894081</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,13 +1024,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="D28">
         <v>49</v>
       </c>
       <c r="E28">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="F28">
         <v>7.632398753894081</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D28">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E28">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="F28">
-        <v>7.632398753894081</v>
+        <v>7.78816199376947</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,13 +1024,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D28">
         <v>50</v>
       </c>
       <c r="E28">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F28">
         <v>7.78816199376947</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E28">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="F28">
-        <v>7.78816199376947</v>
+        <v>7.943925233644859</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,13 +1024,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D28">
         <v>51</v>
       </c>
       <c r="E28">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="F28">
         <v>7.943925233644859</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D28">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E28">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="F28">
-        <v>7.943925233644859</v>
+        <v>8.099688473520249</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="D28">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E28">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="F28">
-        <v>8.099688473520249</v>
+        <v>8.255451713395638</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="D28">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E28">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="F28">
-        <v>8.255451713395638</v>
+        <v>8.411214953271028</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,13 +1024,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="D28">
         <v>54</v>
       </c>
       <c r="E28">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="F28">
         <v>8.411214953271028</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,13 +1024,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="D28">
         <v>54</v>
       </c>
       <c r="E28">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="F28">
         <v>8.411214953271028</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,13 +1024,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="D28">
         <v>54</v>
       </c>
       <c r="E28">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="F28">
         <v>8.411214953271028</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="D28">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="F28">
-        <v>8.411214953271028</v>
+        <v>8.566978193146417</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,13 +1024,13 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="D28">
         <v>55</v>
       </c>
       <c r="E28">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="F28">
         <v>8.566978193146417</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1024,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="D28">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="F28">
-        <v>8.566978193146417</v>
+        <v>8.722741433021806</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>trimestre</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>2025Q2</t>
+  </si>
+  <si>
+    <t>2025Q3</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,6 +1039,26 @@
         <v>8.722741433021806</v>
       </c>
     </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>0.3442340791738382</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F29">
-        <v>0.3442340791738382</v>
+        <v>0.8605851979345954</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F29">
-        <v>0.8605851979345954</v>
+        <v>1.032702237521515</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E29">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F29">
-        <v>1.032702237521515</v>
+        <v>1.376936316695353</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F29">
-        <v>1.376936316695353</v>
+        <v>2.065404475043029</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,13 +1047,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D29">
         <v>12</v>
       </c>
       <c r="E29">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F29">
         <v>2.065404475043029</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F29">
-        <v>2.065404475043029</v>
+        <v>2.237521514629949</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E29">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F29">
-        <v>2.237521514629949</v>
+        <v>2.409638554216868</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E29">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F29">
-        <v>2.409638554216868</v>
+        <v>2.753872633390706</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E29">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F29">
-        <v>2.753872633390706</v>
+        <v>3.270223752151463</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E29">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F29">
-        <v>3.270223752151463</v>
+        <v>3.614457831325301</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F29">
-        <v>3.614457831325301</v>
+        <v>3.78657487091222</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,13 +1047,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D29">
         <v>22</v>
       </c>
       <c r="E29">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F29">
         <v>3.78657487091222</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F29">
-        <v>3.78657487091222</v>
+        <v>3.95869191049914</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E29">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F29">
-        <v>3.95869191049914</v>
+        <v>4.130808950086059</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,13 +1047,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D29">
         <v>24</v>
       </c>
       <c r="E29">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F29">
         <v>4.130808950086059</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,13 +1047,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D29">
         <v>24</v>
       </c>
       <c r="E29">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F29">
         <v>4.130808950086059</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E29">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F29">
-        <v>4.130808950086059</v>
+        <v>4.302925989672977</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E29">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F29">
-        <v>4.302925989672977</v>
+        <v>4.991394148020654</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E29">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F29">
-        <v>4.991394148020654</v>
+        <v>5.679862306368331</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F29">
-        <v>5.679862306368331</v>
+        <v>5.851979345955249</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,13 +1047,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D29">
         <v>34</v>
       </c>
       <c r="E29">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F29">
         <v>5.851979345955249</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D29">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E29">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F29">
-        <v>5.851979345955249</v>
+        <v>6.024096385542169</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="F29">
-        <v>6.024096385542169</v>
+        <v>6.196213425129088</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,13 +1047,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D29">
         <v>36</v>
       </c>
       <c r="E29">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F29">
         <v>6.196213425129088</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,13 +1047,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D29">
         <v>36</v>
       </c>
       <c r="E29">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F29">
         <v>6.196213425129088</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D29">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F29">
-        <v>6.196213425129088</v>
+        <v>6.368330464716007</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="D29">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E29">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="F29">
-        <v>6.368330464716007</v>
+        <v>6.540447504302927</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,13 +1047,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="D29">
         <v>38</v>
       </c>
       <c r="E29">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="F29">
         <v>6.540447504302927</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,13 +1047,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D29">
         <v>38</v>
       </c>
       <c r="E29">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="F29">
         <v>6.540447504302927</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,13 +1047,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D29">
         <v>38</v>
       </c>
       <c r="E29">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F29">
         <v>6.540447504302927</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="D29">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E29">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="F29">
-        <v>6.540447504302927</v>
+        <v>7.228915662650602</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,13 +1047,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D29">
         <v>42</v>
       </c>
       <c r="E29">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F29">
         <v>7.228915662650602</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,13 +1047,13 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D29">
         <v>42</v>
       </c>
       <c r="E29">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F29">
         <v>7.228915662650602</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_recorrencia_trimestral.xlsx
@@ -1047,16 +1047,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="D29">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E29">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="F29">
-        <v>7.228915662650602</v>
+        <v>7.401032702237521</v>
       </c>
     </row>
   </sheetData>
